--- a/customLibrary/getdata.xlsx
+++ b/customLibrary/getdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumar\PycharmProjects\POC_Doxa_RobotFrameWork\customLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB3A43-514F-484B-9B42-F1D553EFC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF854C2-78F8-4054-9C40-1611A9D26903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C518E7A-1461-4509-9B57-60B89352E197}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C518E7A-1461-4509-9B57-60B89352E197}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>Username</t>
   </si>
@@ -188,9 +188,6 @@
     <t>item category</t>
   </si>
   <si>
-    <t>item category dropdown</t>
-  </si>
-  <si>
     <t>xpath:(//div[@col-id="itemDescription"])[2]</t>
   </si>
   <si>
@@ -201,13 +198,214 @@
   </si>
   <si>
     <t>xpath:(//div[@class="ag-center-cols-viewport"])[1]</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="itemModel"])[2]</t>
+  </si>
+  <si>
+    <t>item mode</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="itemSize"])[2]</t>
+  </si>
+  <si>
+    <t>item size</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="itemBrand"])[2]</t>
+  </si>
+  <si>
+    <t>item Brand</t>
+  </si>
+  <si>
+    <t>dropdown list</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="uomCode"])[2]</t>
+  </si>
+  <si>
+    <t>UOM code</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="note"])[2]</t>
+  </si>
+  <si>
+    <t>note field</t>
+  </si>
+  <si>
+    <t>Internal Conversations comment</t>
+  </si>
+  <si>
+    <t>//div[@class='mb-2 row']//input[@placeholder='Please enter your comment here...']</t>
+  </si>
+  <si>
+    <t>Internal Conversations Send button</t>
+  </si>
+  <si>
+    <t>//div[@class='mb-2 row']//button[@type='button'][normalize-space()='Send']</t>
+  </si>
+  <si>
+    <t>External Conversations comment</t>
+  </si>
+  <si>
+    <t>External Conversations Send Button</t>
+  </si>
+  <si>
+    <t>//div[@class='mb-4 row']//input[@placeholder='Please enter your comment here...']</t>
+  </si>
+  <si>
+    <t>//div[@class='mb-4 row']//button[@type='button'][normalize-space()='Send']</t>
+  </si>
+  <si>
+    <t>Nature of Requisition</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Non-Project</t>
+  </si>
+  <si>
+    <t>Singapore Dollar (+SGD)</t>
+  </si>
+  <si>
+    <t>PPR approver</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Jalan Besar</t>
+  </si>
+  <si>
+    <t>Just testing</t>
+  </si>
+  <si>
+    <t>PPR Raise Submit Button</t>
+  </si>
+  <si>
+    <t>//button[@class='mr-3 btn btn-primary']</t>
+  </si>
+  <si>
+    <t>(//div[@col-id="quantity"])[2]</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Purchase Pre-Requisitions List</t>
+  </si>
+  <si>
+    <t>Purchase Pre-Requisitions List Header</t>
+  </si>
+  <si>
+    <t>xpath://h1[@class='display-5 mr-3 mb-0 align-self-start']//span[contains(text(),'Purchase Pre-Requisitions List')]</t>
+  </si>
+  <si>
+    <t>xpath://a[@class='sidebar-submenu__entry__link']//span[contains(text(),'Purchase Pre-Requisitions List')]</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@ref="eViewport"])[1]/div/div[1]</t>
+  </si>
+  <si>
+    <t>Purchase Pre-Requisitions List first list</t>
+  </si>
+  <si>
+    <t>xpath://p[text()='Audit Trail']</t>
+  </si>
+  <si>
+    <t>Audit Trail</t>
+  </si>
+  <si>
+    <t>Approve Button</t>
+  </si>
+  <si>
+    <t>xpath://button[@label="Approve"]</t>
+  </si>
+  <si>
+    <t>xpath://button[normalize-space()='Convert To Request']</t>
+  </si>
+  <si>
+    <t>Convert to Request Button</t>
+  </si>
+  <si>
+    <t>Clear All</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>xpath://button[text()='Clear All']</t>
+  </si>
+  <si>
+    <t>xpath://div[text()='Please select a supplier']</t>
+  </si>
+  <si>
+    <t>xpath://ul[@role="listbox"]</t>
+  </si>
+  <si>
+    <t>xpath://li[text()='SS0001']</t>
+  </si>
+  <si>
+    <t>Supplier Code List box</t>
+  </si>
+  <si>
+    <t>ss0001</t>
+  </si>
+  <si>
+    <t>xpath://button[normalize-space()='Submit']</t>
+  </si>
+  <si>
+    <t>Purchase Request Details Submit Button</t>
+  </si>
+  <si>
+    <t>Purchase Request Details Approval Route</t>
+  </si>
+  <si>
+    <t>xpath://select[@name='approvalRouteUuid']</t>
+  </si>
+  <si>
+    <t>PR approval</t>
+  </si>
+  <si>
+    <t>(//div[@col-id="taxCode"])[2]</t>
+  </si>
+  <si>
+    <t>tax code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t>(//div[@class="ag-center-cols-clipper"])[1]/div/div/div/div[@col-id="sourceCurrency"]</t>
+  </si>
+  <si>
+    <t>Currency Option</t>
+  </si>
+  <si>
+    <t>//div[@class=" css-g1d714-ValueContainer"]</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="supplierUuid"])[2]</t>
+  </si>
+  <si>
+    <t>Supplier Uid</t>
+  </si>
+  <si>
+    <t>xpath://button[text()='Submit']</t>
+  </si>
+  <si>
+    <t>Submit Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +441,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,6 +509,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,34 +836,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00092C5-C846-4B0A-8001-D507774B3722}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -632,16 +929,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C177288E-979B-4494-9C30-0F44EC20F1D2}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="131.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -822,7 +1119,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -830,18 +1127,242 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/customLibrary/getdata.xlsx
+++ b/customLibrary/getdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumar\PycharmProjects\POC_Doxa_RobotFrameWork\customLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF854C2-78F8-4054-9C40-1611A9D26903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025A847-FF2C-49C6-87AD-849EB02C022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C518E7A-1461-4509-9B57-60B89352E197}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -399,6 +399,54 @@
   </si>
   <si>
     <t>Submit Button</t>
+  </si>
+  <si>
+    <t>Requisition left tab</t>
+  </si>
+  <si>
+    <t>xpath://span[normalize-space()='Requisitions']</t>
+  </si>
+  <si>
+    <t>PR list left tab</t>
+  </si>
+  <si>
+    <t>xpath://span[normalize-space()='PRs List']</t>
+  </si>
+  <si>
+    <t>xpath://button[normalize-space()='Approve']</t>
+  </si>
+  <si>
+    <t>Purchase Request Details Approve button</t>
+  </si>
+  <si>
+    <t>Order Tab</t>
+  </si>
+  <si>
+    <t>xpath://span[normalize-space()='Requests Pending Conversion']</t>
+  </si>
+  <si>
+    <t>Requests Pending Conversion</t>
+  </si>
+  <si>
+    <t>xpath://span[normalize-space()='PRs To Be Converted']</t>
+  </si>
+  <si>
+    <t>PR to be Converted</t>
+  </si>
+  <si>
+    <t>xpath://div[normalize-space()='Orders']</t>
+  </si>
+  <si>
+    <t>xpath://button[text()='Convert to PO']</t>
+  </si>
+  <si>
+    <t>Convert to PO button</t>
+  </si>
+  <si>
+    <t>xpath://button[text()='View']</t>
+  </si>
+  <si>
+    <t>View Button</t>
   </si>
 </sst>
 </file>
@@ -929,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C177288E-979B-4494-9C30-0F44EC20F1D2}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1365,6 +1413,70 @@
         <v>119</v>
       </c>
     </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/customLibrary/getdata.xlsx
+++ b/customLibrary/getdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumar\PycharmProjects\POC_Doxa_RobotFrameWork\customLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025A847-FF2C-49C6-87AD-849EB02C022E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37440B6F-139E-47B6-AB25-CBB8CBB442F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C518E7A-1461-4509-9B57-60B89352E197}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
   <si>
     <t>Username</t>
   </si>
@@ -311,9 +311,6 @@
     <t>xpath:(//div[@ref="eViewport"])[1]/div/div[1]</t>
   </si>
   <si>
-    <t>Purchase Pre-Requisitions List first list</t>
-  </si>
-  <si>
     <t>xpath://p[text()='Audit Trail']</t>
   </si>
   <si>
@@ -443,10 +440,31 @@
     <t>Convert to PO button</t>
   </si>
   <si>
-    <t>xpath://button[text()='View']</t>
-  </si>
-  <si>
-    <t>View Button</t>
+    <t>xpath://span[contains(text(),'Orders List')]</t>
+  </si>
+  <si>
+    <t>Order List</t>
+  </si>
+  <si>
+    <t>PO list</t>
+  </si>
+  <si>
+    <t>xpath://span[contains(text(),'POs List')]</t>
+  </si>
+  <si>
+    <t>Issue Button</t>
+  </si>
+  <si>
+    <t>xpath://button[normalize-space()='Issue']</t>
+  </si>
+  <si>
+    <t>PO approver</t>
+  </si>
+  <si>
+    <t>Purchase Order Details Approval Route</t>
+  </si>
+  <si>
+    <t>first list</t>
   </si>
 </sst>
 </file>
@@ -884,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00092C5-C846-4B0A-8001-D507774B3722}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -901,9 +919,10 @@
     <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -929,10 +948,13 @@
         <v>75</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -958,10 +980,13 @@
         <v>81</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -977,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C177288E-979B-4494-9C30-0F44EC20F1D2}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1295,7 +1320,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1303,178 +1328,194 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>135</v>
+      <c r="B62" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/customLibrary/getdata.xlsx
+++ b/customLibrary/getdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumar\PycharmProjects\POC_Doxa_RobotFrameWork\customLibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37440B6F-139E-47B6-AB25-CBB8CBB442F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B358A1B-D475-4B76-A18F-2B659E10A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3C518E7A-1461-4509-9B57-60B89352E197}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>Username</t>
   </si>
@@ -377,9 +377,6 @@
     <t xml:space="preserve">Currency </t>
   </si>
   <si>
-    <t>(//div[@class="ag-center-cols-clipper"])[1]/div/div/div/div[@col-id="sourceCurrency"]</t>
-  </si>
-  <si>
     <t>Currency Option</t>
   </si>
   <si>
@@ -465,13 +462,61 @@
   </si>
   <si>
     <t>first list</t>
+  </si>
+  <si>
+    <t>Requisition left Tab</t>
+  </si>
+  <si>
+    <t>Raise Requisition</t>
+  </si>
+  <si>
+    <t>xpath://span[normalize-space()='Raise Requisition']</t>
+  </si>
+  <si>
+    <t>Raise Requisition Type of Requisition</t>
+  </si>
+  <si>
+    <t>Purchase Requisition</t>
+  </si>
+  <si>
+    <t>xpath://textarea[@placeholder='Enter PR Title']</t>
+  </si>
+  <si>
+    <t>PR_Title</t>
+  </si>
+  <si>
+    <t>Raise PR UOM code field</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="uom"])[2]</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="itemQuantity"])[2]</t>
+  </si>
+  <si>
+    <t>Raise PR item quantity</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@class="ag-center-cols-clipper"])[1]/div/div/div/div[@col-id="sourceCurrency"]</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="itemUnitPrice"])[2]</t>
+  </si>
+  <si>
+    <t>Item Unit Price</t>
+  </si>
+  <si>
+    <t>xpath:(//div[@col-id="priceType"])[2]</t>
+  </si>
+  <si>
+    <t>Price Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +590,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -566,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,6 +639,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00092C5-C846-4B0A-8001-D507774B3722}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -920,9 +972,10 @@
     <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -951,10 +1004,13 @@
         <v>107</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>140</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -983,10 +1039,13 @@
         <v>109</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>139</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1002,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C177288E-979B-4494-9C30-0F44EC20F1D2}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1320,7 +1379,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>90</v>
@@ -1411,111 +1470,167 @@
         <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>139</v>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/customLibrary/getdata.xlsx
+++ b/customLibrary/getdata.xlsx
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>TestcmDJ0Hjs</t>
+          <t>TestRhr23QDX</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PR100000032</t>
+          <t>PR100000034</t>
         </is>
       </c>
     </row>
